--- a/test-task3/1 events tickets.xlsx
+++ b/test-task3/1 events tickets.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="orders" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>families</t>
+  </si>
+  <si>
+    <t>//Убрала  equal price, потому что сумма вычисляема</t>
   </si>
 </sst>
 </file>
@@ -435,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,6 +520,11 @@
         <v>44209.422743055555</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -527,7 +535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
